--- a/Documentation_and_Tools/Tools/SMD_A2_Changelog.xlsx
+++ b/Documentation_and_Tools/Tools/SMD_A2_Changelog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="150" windowWidth="18915" windowHeight="10005"/>
+    <workbookView xWindow="14655" yWindow="15" windowWidth="11025" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="82">
   <si>
     <t xml:space="preserve">[Added] - </t>
   </si>
@@ -189,6 +189,81 @@
   </si>
   <si>
     <t>INITIAL RELEASE  24 Aug 2013 v0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Name - </t>
+  </si>
+  <si>
+    <t>Incorrect model name used zidka03 changed to zidka_branka</t>
+  </si>
+  <si>
+    <t>UPDATE 07 Oct 2013 - v.0.80</t>
+  </si>
+  <si>
+    <t>All Land Classed Objects renamed to include smd_ ofpec tag prefix to prevent conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict - </t>
+  </si>
+  <si>
+    <t>Skybox altered to prevent conflicts</t>
+  </si>
+  <si>
+    <t>(4 Story Apt. Will be re-added once fixed)</t>
+  </si>
+  <si>
+    <t>smd_dum_olez_istan1_open (2 versions)</t>
+  </si>
+  <si>
+    <t>smd_dum_olez_istan2_open (2 versions)</t>
+  </si>
+  <si>
+    <t>smd_bouda_plech_open</t>
+  </si>
+  <si>
+    <t>smd_dum_mesto_in_open</t>
+  </si>
+  <si>
+    <t>smd_budova4_in (A1 Enterable Army Barracks) (fixed and animated doors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature - </t>
+  </si>
+  <si>
+    <t>Glass to many of the smd_ Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smd_hangard_withdoor (Desert Aircraft hangar with animated front doors and roll up door with SFX) </t>
+  </si>
+  <si>
+    <t>Docks at Corazol placment issue</t>
+  </si>
+  <si>
+    <t>smd_dum_mesto3</t>
+  </si>
+  <si>
+    <t>smd_garaz_long_open</t>
+  </si>
+  <si>
+    <t>smd_garaz_open</t>
+  </si>
+  <si>
+    <t>Glass (individual shattering panes) to more smd_ Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building LODs for ALL smd_ Buildings normalized </t>
+  </si>
+  <si>
+    <t>Animated Destruction! for smd_dum_olez_istan2_open &amp; smd_dum_olez_istan2_open2</t>
+  </si>
+  <si>
+    <t>Door Breeching! For all smd_dum_olez_istanx_openx buildings both 1's and both 2's</t>
+  </si>
+  <si>
+    <t>Improved Ground textures with _nopx files</t>
+  </si>
+  <si>
+    <t>smd_budova3_open</t>
   </si>
 </sst>
 </file>
@@ -224,8 +299,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,11 +596,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H37"/>
-    </sheetView>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1038,6 +1112,157 @@
       </c>
       <c r="C37" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,11 +1284,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
+      <c r="A1" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1071,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1079,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1087,10 +1309,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1101,10 +1320,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1115,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1129,116 +1345,231 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="A11" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>0</v>
       </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="C4:E7">
-    <sortCondition ref="C4"/>
+  <sortState ref="A12:C17">
+    <sortCondition ref="A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1247,7 +1578,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1388,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:L28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1769,15 +2100,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1788,48 +2135,162 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
+      <c r="A28">
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>2</v>
       </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>2</v>
       </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>2</v>
       </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B26:D28">
-    <sortCondition ref="B26"/>
+  <sortState ref="B29:C33">
+    <sortCondition ref="B29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1837,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1848,80 +2309,89 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1973,6 +2443,21 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
